--- a/contratos/contratos-8-2012.xlsx
+++ b/contratos/contratos-8-2012.xlsx
@@ -532,7 +532,7 @@
     <t>DISTRIBUIDORA ROCCA S.A.</t>
   </si>
   <si>
-    <t>FERNANDEZ MARIO H, GALLICET OSCAR M</t>
+    <t>FERNANDEZ MARIO H. GALLICET OSCAR M</t>
   </si>
   <si>
     <t>FIOROTTO ALBERTO M Y REY CESAR A S.R.L.</t>
@@ -619,10 +619,10 @@
     <t>STECKLEIN MARIA RAQUEL</t>
   </si>
   <si>
-    <t>IZAGUIRRE CARLOS MARIA, MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
-  </si>
-  <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>IZAGUIRRE CARLOS MARIA. MOREND MARIA ELENA Y MOREND MARIA TERESA</t>
+  </si>
+  <si>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>RODE NELSON FEDERICO</t>
@@ -652,7 +652,7 @@
     <t>SYLVESTRE CARLOS OMAR</t>
   </si>
   <si>
-    <t>TRABICHET MARIA, VERGARA ADEL Y OTRA</t>
+    <t>TRABICHET MARIA. VERGARA ADEL Y OTRA</t>
   </si>
   <si>
     <t>BOZZI GUSTAVO LEONARDO</t>
@@ -1030,490 +1030,490 @@
     <t>11</t>
   </si>
   <si>
-    <t>2.787,50</t>
-  </si>
-  <si>
-    <t>1.349,35</t>
-  </si>
-  <si>
-    <t>5.209,60</t>
-  </si>
-  <si>
-    <t>1.907,50</t>
-  </si>
-  <si>
-    <t>131.368,16</t>
-  </si>
-  <si>
-    <t>22.580,50</t>
-  </si>
-  <si>
-    <t>5.856,00</t>
-  </si>
-  <si>
-    <t>15.452,75</t>
-  </si>
-  <si>
-    <t>2.045,44</t>
-  </si>
-  <si>
-    <t>8.684,97</t>
-  </si>
-  <si>
-    <t>1.534,50</t>
-  </si>
-  <si>
-    <t>8.287,85</t>
-  </si>
-  <si>
-    <t>2.400,00</t>
-  </si>
-  <si>
-    <t>1.780,00</t>
-  </si>
-  <si>
-    <t>9,59</t>
-  </si>
-  <si>
-    <t>48,86</t>
-  </si>
-  <si>
-    <t>45,50</t>
-  </si>
-  <si>
-    <t>28.977,70</t>
-  </si>
-  <si>
-    <t>280,00</t>
-  </si>
-  <si>
-    <t>13.379,65</t>
-  </si>
-  <si>
-    <t>99,42</t>
-  </si>
-  <si>
-    <t>115,00</t>
-  </si>
-  <si>
-    <t>1.317,47</t>
-  </si>
-  <si>
-    <t>40,00</t>
-  </si>
-  <si>
-    <t>232,00</t>
-  </si>
-  <si>
-    <t>13.104,90</t>
-  </si>
-  <si>
-    <t>186,80</t>
-  </si>
-  <si>
-    <t>1.724,24</t>
-  </si>
-  <si>
-    <t>945,00</t>
-  </si>
-  <si>
-    <t>1.705,13</t>
-  </si>
-  <si>
-    <t>95,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>1.464,00</t>
-  </si>
-  <si>
-    <t>2.140,00</t>
-  </si>
-  <si>
-    <t>1.430,00</t>
-  </si>
-  <si>
-    <t>94,00</t>
-  </si>
-  <si>
-    <t>2,66</t>
-  </si>
-  <si>
-    <t>2.287,82</t>
-  </si>
-  <si>
-    <t>1.092,17</t>
-  </si>
-  <si>
-    <t>8.786,65</t>
-  </si>
-  <si>
-    <t>467,50</t>
-  </si>
-  <si>
-    <t>1.064,00</t>
-  </si>
-  <si>
-    <t>6.750,00</t>
-  </si>
-  <si>
-    <t>307,59</t>
-  </si>
-  <si>
-    <t>120,00</t>
-  </si>
-  <si>
-    <t>1.100,00</t>
-  </si>
-  <si>
-    <t>386,90</t>
-  </si>
-  <si>
-    <t>1.003,24</t>
-  </si>
-  <si>
-    <t>69,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>15,50</t>
-  </si>
-  <si>
-    <t>271,76</t>
-  </si>
-  <si>
-    <t>124,00</t>
-  </si>
-  <si>
-    <t>2.088,70</t>
-  </si>
-  <si>
-    <t>630,00</t>
-  </si>
-  <si>
-    <t>1.380,00</t>
-  </si>
-  <si>
-    <t>612,20</t>
-  </si>
-  <si>
-    <t>200,00</t>
-  </si>
-  <si>
-    <t>22.560,00</t>
-  </si>
-  <si>
-    <t>2.302,00</t>
-  </si>
-  <si>
-    <t>754,50</t>
-  </si>
-  <si>
-    <t>2.970,00</t>
-  </si>
-  <si>
-    <t>268,00</t>
-  </si>
-  <si>
-    <t>1.337,00</t>
-  </si>
-  <si>
-    <t>753,00</t>
-  </si>
-  <si>
-    <t>243,43</t>
-  </si>
-  <si>
-    <t>1.415,00</t>
-  </si>
-  <si>
-    <t>7.835,00</t>
-  </si>
-  <si>
-    <t>162,00</t>
-  </si>
-  <si>
-    <t>4.663,90</t>
-  </si>
-  <si>
-    <t>1.450,00</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>144.870,00</t>
-  </si>
-  <si>
-    <t>7.040,04</t>
-  </si>
-  <si>
-    <t>190,78</t>
-  </si>
-  <si>
-    <t>7,88</t>
-  </si>
-  <si>
-    <t>30,00</t>
-  </si>
-  <si>
-    <t>46,00</t>
-  </si>
-  <si>
-    <t>3.393,10</t>
-  </si>
-  <si>
-    <t>2.395,00</t>
-  </si>
-  <si>
-    <t>2.094,50</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>311,00</t>
-  </si>
-  <si>
-    <t>42,50</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>164,00</t>
-  </si>
-  <si>
-    <t>49,00</t>
-  </si>
-  <si>
-    <t>1.186,10</t>
-  </si>
-  <si>
-    <t>1.795,10</t>
-  </si>
-  <si>
-    <t>613,92</t>
-  </si>
-  <si>
-    <t>219,00</t>
-  </si>
-  <si>
-    <t>223,99</t>
-  </si>
-  <si>
-    <t>5.591,00</t>
-  </si>
-  <si>
-    <t>1.650,00</t>
-  </si>
-  <si>
-    <t>10.090,00</t>
-  </si>
-  <si>
-    <t>37,00</t>
-  </si>
-  <si>
-    <t>2.337,00</t>
-  </si>
-  <si>
-    <t>349,00</t>
-  </si>
-  <si>
-    <t>3.322,00</t>
-  </si>
-  <si>
-    <t>15.785,01</t>
-  </si>
-  <si>
-    <t>2.210,00</t>
-  </si>
-  <si>
-    <t>3.025,00</t>
-  </si>
-  <si>
-    <t>2.245,00</t>
-  </si>
-  <si>
-    <t>375,00</t>
-  </si>
-  <si>
-    <t>16.868,00</t>
-  </si>
-  <si>
-    <t>4.900,00</t>
-  </si>
-  <si>
-    <t>2.921,00</t>
-  </si>
-  <si>
-    <t>785,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>3.500,00</t>
-  </si>
-  <si>
-    <t>1.690,86</t>
-  </si>
-  <si>
-    <t>11.572,50</t>
-  </si>
-  <si>
-    <t>1.700,90</t>
-  </si>
-  <si>
-    <t>420,60</t>
-  </si>
-  <si>
-    <t>470,95</t>
-  </si>
-  <si>
-    <t>2.900,00</t>
-  </si>
-  <si>
-    <t>6.990,00</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>1.000,00</t>
-  </si>
-  <si>
-    <t>773,50</t>
-  </si>
-  <si>
-    <t>700,00</t>
-  </si>
-  <si>
-    <t>16.717,90</t>
-  </si>
-  <si>
-    <t>4.250,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>20.660,00</t>
-  </si>
-  <si>
-    <t>249,90</t>
-  </si>
-  <si>
-    <t>34.545,50</t>
-  </si>
-  <si>
-    <t>20,00</t>
-  </si>
-  <si>
-    <t>2.461,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>9.980,00</t>
-  </si>
-  <si>
-    <t>736,92</t>
-  </si>
-  <si>
-    <t>1.955,00</t>
-  </si>
-  <si>
-    <t>4.856,00</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>131,40</t>
-  </si>
-  <si>
-    <t>111,41</t>
-  </si>
-  <si>
-    <t>960,00</t>
-  </si>
-  <si>
-    <t>250,34</t>
-  </si>
-  <si>
-    <t>6.780,63</t>
-  </si>
-  <si>
-    <t>3.563,59</t>
-  </si>
-  <si>
-    <t>5.372,00</t>
-  </si>
-  <si>
-    <t>2.312,70</t>
-  </si>
-  <si>
-    <t>3.843,20</t>
-  </si>
-  <si>
-    <t>1.950,00</t>
-  </si>
-  <si>
-    <t>8.475,69</t>
-  </si>
-  <si>
-    <t>3.975,00</t>
-  </si>
-  <si>
-    <t>98,76</t>
-  </si>
-  <si>
-    <t>885,60</t>
-  </si>
-  <si>
-    <t>582,40</t>
-  </si>
-  <si>
-    <t>2.718,16</t>
-  </si>
-  <si>
-    <t>3.872,61</t>
-  </si>
-  <si>
-    <t>2.791,00</t>
-  </si>
-  <si>
-    <t>13.100,00</t>
-  </si>
-  <si>
-    <t>224.900,00</t>
-  </si>
-  <si>
-    <t>189.854,50</t>
-  </si>
-  <si>
-    <t>243.375,00</t>
-  </si>
-  <si>
-    <t>222.700,00</t>
-  </si>
-  <si>
-    <t>249.084,00</t>
-  </si>
-  <si>
-    <t>245.924,00</t>
-  </si>
-  <si>
-    <t>200.900,00</t>
-  </si>
-  <si>
-    <t>186.556,46</t>
+    <t>2787.50</t>
+  </si>
+  <si>
+    <t>1349.35</t>
+  </si>
+  <si>
+    <t>5209.60</t>
+  </si>
+  <si>
+    <t>1907.50</t>
+  </si>
+  <si>
+    <t>131368.16</t>
+  </si>
+  <si>
+    <t>22580.50</t>
+  </si>
+  <si>
+    <t>5856.00</t>
+  </si>
+  <si>
+    <t>15452.75</t>
+  </si>
+  <si>
+    <t>2045.44</t>
+  </si>
+  <si>
+    <t>8684.97</t>
+  </si>
+  <si>
+    <t>1534.50</t>
+  </si>
+  <si>
+    <t>8287.85</t>
+  </si>
+  <si>
+    <t>2400.00</t>
+  </si>
+  <si>
+    <t>1780.00</t>
+  </si>
+  <si>
+    <t>9.59</t>
+  </si>
+  <si>
+    <t>48.86</t>
+  </si>
+  <si>
+    <t>45.50</t>
+  </si>
+  <si>
+    <t>28977.70</t>
+  </si>
+  <si>
+    <t>280.00</t>
+  </si>
+  <si>
+    <t>13379.65</t>
+  </si>
+  <si>
+    <t>99.42</t>
+  </si>
+  <si>
+    <t>115.00</t>
+  </si>
+  <si>
+    <t>1317.47</t>
+  </si>
+  <si>
+    <t>40.00</t>
+  </si>
+  <si>
+    <t>232.00</t>
+  </si>
+  <si>
+    <t>13104.90</t>
+  </si>
+  <si>
+    <t>186.80</t>
+  </si>
+  <si>
+    <t>1724.24</t>
+  </si>
+  <si>
+    <t>945.00</t>
+  </si>
+  <si>
+    <t>1705.13</t>
+  </si>
+  <si>
+    <t>95.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>1464.00</t>
+  </si>
+  <si>
+    <t>2140.00</t>
+  </si>
+  <si>
+    <t>1430.00</t>
+  </si>
+  <si>
+    <t>94.00</t>
+  </si>
+  <si>
+    <t>2.66</t>
+  </si>
+  <si>
+    <t>2287.82</t>
+  </si>
+  <si>
+    <t>1092.17</t>
+  </si>
+  <si>
+    <t>8786.65</t>
+  </si>
+  <si>
+    <t>467.50</t>
+  </si>
+  <si>
+    <t>1064.00</t>
+  </si>
+  <si>
+    <t>6750.00</t>
+  </si>
+  <si>
+    <t>307.59</t>
+  </si>
+  <si>
+    <t>120.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>386.90</t>
+  </si>
+  <si>
+    <t>1003.24</t>
+  </si>
+  <si>
+    <t>69.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>15.50</t>
+  </si>
+  <si>
+    <t>271.76</t>
+  </si>
+  <si>
+    <t>124.00</t>
+  </si>
+  <si>
+    <t>2088.70</t>
+  </si>
+  <si>
+    <t>630.00</t>
+  </si>
+  <si>
+    <t>1380.00</t>
+  </si>
+  <si>
+    <t>612.20</t>
+  </si>
+  <si>
+    <t>200.00</t>
+  </si>
+  <si>
+    <t>22560.00</t>
+  </si>
+  <si>
+    <t>2302.00</t>
+  </si>
+  <si>
+    <t>754.50</t>
+  </si>
+  <si>
+    <t>2970.00</t>
+  </si>
+  <si>
+    <t>268.00</t>
+  </si>
+  <si>
+    <t>1337.00</t>
+  </si>
+  <si>
+    <t>753.00</t>
+  </si>
+  <si>
+    <t>243.43</t>
+  </si>
+  <si>
+    <t>1415.00</t>
+  </si>
+  <si>
+    <t>7835.00</t>
+  </si>
+  <si>
+    <t>162.00</t>
+  </si>
+  <si>
+    <t>4663.90</t>
+  </si>
+  <si>
+    <t>1450.00</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>144870.00</t>
+  </si>
+  <si>
+    <t>7040.04</t>
+  </si>
+  <si>
+    <t>190.78</t>
+  </si>
+  <si>
+    <t>7.88</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>46.00</t>
+  </si>
+  <si>
+    <t>3393.10</t>
+  </si>
+  <si>
+    <t>2395.00</t>
+  </si>
+  <si>
+    <t>2094.50</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>311.00</t>
+  </si>
+  <si>
+    <t>42.50</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>164.00</t>
+  </si>
+  <si>
+    <t>49.00</t>
+  </si>
+  <si>
+    <t>1186.10</t>
+  </si>
+  <si>
+    <t>1795.10</t>
+  </si>
+  <si>
+    <t>613.92</t>
+  </si>
+  <si>
+    <t>219.00</t>
+  </si>
+  <si>
+    <t>223.99</t>
+  </si>
+  <si>
+    <t>5591.00</t>
+  </si>
+  <si>
+    <t>1650.00</t>
+  </si>
+  <si>
+    <t>10090.00</t>
+  </si>
+  <si>
+    <t>37.00</t>
+  </si>
+  <si>
+    <t>2337.00</t>
+  </si>
+  <si>
+    <t>349.00</t>
+  </si>
+  <si>
+    <t>3322.00</t>
+  </si>
+  <si>
+    <t>15785.01</t>
+  </si>
+  <si>
+    <t>2210.00</t>
+  </si>
+  <si>
+    <t>3025.00</t>
+  </si>
+  <si>
+    <t>2245.00</t>
+  </si>
+  <si>
+    <t>375.00</t>
+  </si>
+  <si>
+    <t>16868.00</t>
+  </si>
+  <si>
+    <t>4900.00</t>
+  </si>
+  <si>
+    <t>2921.00</t>
+  </si>
+  <si>
+    <t>785.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>3500.00</t>
+  </si>
+  <si>
+    <t>1690.86</t>
+  </si>
+  <si>
+    <t>11572.50</t>
+  </si>
+  <si>
+    <t>1700.90</t>
+  </si>
+  <si>
+    <t>420.60</t>
+  </si>
+  <si>
+    <t>470.95</t>
+  </si>
+  <si>
+    <t>2900.00</t>
+  </si>
+  <si>
+    <t>6990.00</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>773.50</t>
+  </si>
+  <si>
+    <t>700.00</t>
+  </si>
+  <si>
+    <t>16717.90</t>
+  </si>
+  <si>
+    <t>4250.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>20660.00</t>
+  </si>
+  <si>
+    <t>249.90</t>
+  </si>
+  <si>
+    <t>34545.50</t>
+  </si>
+  <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>2461.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>9980.00</t>
+  </si>
+  <si>
+    <t>736.92</t>
+  </si>
+  <si>
+    <t>1955.00</t>
+  </si>
+  <si>
+    <t>4856.00</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>131.40</t>
+  </si>
+  <si>
+    <t>111.41</t>
+  </si>
+  <si>
+    <t>960.00</t>
+  </si>
+  <si>
+    <t>250.34</t>
+  </si>
+  <si>
+    <t>6780.63</t>
+  </si>
+  <si>
+    <t>3563.59</t>
+  </si>
+  <si>
+    <t>5372.00</t>
+  </si>
+  <si>
+    <t>2312.70</t>
+  </si>
+  <si>
+    <t>3843.20</t>
+  </si>
+  <si>
+    <t>1950.00</t>
+  </si>
+  <si>
+    <t>8475.69</t>
+  </si>
+  <si>
+    <t>3975.00</t>
+  </si>
+  <si>
+    <t>98.76</t>
+  </si>
+  <si>
+    <t>885.60</t>
+  </si>
+  <si>
+    <t>582.40</t>
+  </si>
+  <si>
+    <t>2718.16</t>
+  </si>
+  <si>
+    <t>3872.61</t>
+  </si>
+  <si>
+    <t>2791.00</t>
+  </si>
+  <si>
+    <t>13100.00</t>
+  </si>
+  <si>
+    <t>224900.00</t>
+  </si>
+  <si>
+    <t>189854.50</t>
+  </si>
+  <si>
+    <t>243375.00</t>
+  </si>
+  <si>
+    <t>222700.00</t>
+  </si>
+  <si>
+    <t>249084.00</t>
+  </si>
+  <si>
+    <t>245924.00</t>
+  </si>
+  <si>
+    <t>200900.00</t>
+  </si>
+  <si>
+    <t>186556.46</t>
   </si>
 </sst>
 </file>
